--- a/data/trans_camb/IP21-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP21-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,45</t>
+          <t>-1,98; 3,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 4,27</t>
+          <t>-4,42; 0,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,34</t>
+          <t>-4,62; 0,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,9</t>
+          <t>-1,63; 3,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,39</t>
+          <t>-3,4; 0,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,77</t>
+          <t>-2,05; 3,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,15</t>
+          <t>-1,19; 2,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,12</t>
+          <t>-3,23; -0,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,74</t>
+          <t>-2,68; 0,61</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>69,89%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>112,32%</t>
+          <t>-61,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-21,54%</t>
+          <t>-61,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>44,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>140,11%</t>
+          <t>-49,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-24,67%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>58,44%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>121,71%</t>
+          <t>-56,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-21,69%</t>
+          <t>-33,11%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,23; 393,03</t>
+          <t>-44,62; 223,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 481,92</t>
+          <t>-88,66; 18,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-80,94; 216,92</t>
+          <t>-90,15; 22,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-81,97; 544,33</t>
+          <t>-48,79; 320,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,31; 910,88</t>
+          <t>-91,47; 102,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 224,97</t>
+          <t>-70,91; 323,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 265,36</t>
+          <t>-35,19; 142,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,96; 369,69</t>
+          <t>-82,73; -6,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-70,73; 103,03</t>
+          <t>-70,01; 42,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>0,79</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,08</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,07</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,09</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,96</t>
+          <t>-0,82; 3,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 0,08</t>
+          <t>-0,39; 4,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,01</t>
+          <t>-2,14; 1,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,41</t>
+          <t>-0,99; 1,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,67</t>
+          <t>-0,34; 3,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 3,17</t>
+          <t>-1,61; 0,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,72</t>
+          <t>-0,5; 2,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,21</t>
+          <t>0,26; 3,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,61</t>
+          <t>-1,34; 0,74</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>69,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-61,81%</t>
+          <t>112,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-61,57%</t>
+          <t>-21,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-49,05%</t>
+          <t>140,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>-24,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>58,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-56,93%</t>
+          <t>121,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-33,11%</t>
+          <t>-21,69%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-44,62; 223,3</t>
+          <t>-40,23; 393,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-88,66; 18,2</t>
+          <t>-24,45; 481,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-90,15; 22,1</t>
+          <t>-80,94; 216,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,79; 320,36</t>
+          <t>-81,97; 544,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-91,47; 102,38</t>
+          <t>-43,31; 910,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,91; 323,43</t>
+          <t>-100,0; 224,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 142,31</t>
+          <t>-33,98; 265,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-82,73; -6,23</t>
+          <t>6,96; 369,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-70,01; 42,58</t>
+          <t>-70,73; 103,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP21-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP21-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,01</t>
+          <t>-8,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,27</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-6,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>-11,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>-14,34</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-10,01</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>-11,56</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 1,4</t>
+          <t>-12,44; 0,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,05; -2,69</t>
+          <t>-14,86; -3,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,2; -2,49</t>
+          <t>-14,94; -2,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 3,45</t>
+          <t>-14,78; -0,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 1,69</t>
+          <t>-18,51; -5,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; -3,75</t>
+          <t>-20,92; -8,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 0,98</t>
+          <t>-10,95; -1,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,26; -1,59</t>
+          <t>-14,51; -5,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,26; -4,21</t>
+          <t>-16,0; -7,44</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-31,5%</t>
+          <t>-45,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-63,94%</t>
+          <t>-65,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-66,67%</t>
+          <t>-66,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,39%</t>
+          <t>-41,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-28,77%</t>
+          <t>-68,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-80,79%</t>
+          <t>-86,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-20,68%</t>
+          <t>-42,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-47,58%</t>
+          <t>-66,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-72,97%</t>
+          <t>-77,31%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-58,13; 21,05</t>
+          <t>-71,15; 3,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-83,02; -32,55</t>
+          <t>-86,3; -26,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-85,62; -23,44</t>
+          <t>-89,96; -17,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,01; 52,97</t>
+          <t>-67,66; -3,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,92; 25,84</t>
+          <t>-85,84; -39,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-95,59; -48,36</t>
+          <t>-96,62; -57,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,58; 12,75</t>
+          <t>-62,62; -12,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-66,12; -20,68</t>
+          <t>-80,67; -46,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-86,04; -49,56</t>
+          <t>-90,94; -55,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,32</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 3,96</t>
+          <t>-1,55; 4,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 0,08</t>
+          <t>-4,97; -0,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,01</t>
+          <t>-4,29; 0,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,41</t>
+          <t>0,67; 5,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,67</t>
+          <t>-0,33; 4,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 3,17</t>
+          <t>-1,05; 4,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,72</t>
+          <t>0,16; 4,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,21</t>
+          <t>-2,15; 1,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,61</t>
+          <t>-1,87; 1,48</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-61,81%</t>
+          <t>-65,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-61,57%</t>
+          <t>-52,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>200,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-49,05%</t>
+          <t>116,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>84,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-56,93%</t>
+          <t>-15,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-33,11%</t>
+          <t>-12,2%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,62; 223,3</t>
+          <t>-32,11; 177,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-88,66; 18,2</t>
+          <t>-91,57; -6,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-90,15; 22,1</t>
+          <t>-85,97; 25,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,79; 320,36</t>
+          <t>12,23; 811,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-91,47; 102,38</t>
+          <t>-28,44; 524,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,91; 323,43</t>
+          <t>-55,7; 542,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 142,31</t>
+          <t>2,28; 220,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-82,73; -6,23</t>
+          <t>-59,58; 69,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-70,01; 42,58</t>
+          <t>-59,12; 77,86</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-1,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 3,45</t>
+          <t>-4,17; 2,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 4,27</t>
+          <t>-3,95; 2,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,34</t>
+          <t>-5,36; 0,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,9</t>
+          <t>-3,35; 1,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,39</t>
+          <t>-1,9; 3,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,77</t>
+          <t>-3,04; 1,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,15</t>
+          <t>-2,87; 1,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,12</t>
+          <t>-2,21; 1,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,74</t>
+          <t>-3,48; 0,21</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>69,89%</t>
+          <t>-26,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>112,32%</t>
+          <t>-15,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-21,54%</t>
+          <t>-64,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>-44,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>140,11%</t>
+          <t>40,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,67%</t>
+          <t>-26,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>58,44%</t>
+          <t>-33,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>121,71%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-21,69%</t>
+          <t>-53,04%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,23; 393,03</t>
+          <t>-80,0; 211,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 481,92</t>
+          <t>-79,11; 158,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,94; 216,92</t>
+          <t>-100,0; 61,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-81,97; 544,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,31; 910,88</t>
+          <t>-78,27; 721,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 224,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 265,36</t>
+          <t>-78,58; 108,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,96; 369,69</t>
+          <t>-60,53; 136,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-70,73; 103,03</t>
+          <t>-85,3; 36,84</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,54</t>
+          <t>-0,64; 4,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -0,14</t>
+          <t>-0,19; 5,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; -1,35</t>
+          <t>-1,85; 1,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,96</t>
+          <t>-1,33; 2,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,88</t>
+          <t>-0,85; 3,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; -0,88</t>
+          <t>-2,2; 0,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,27</t>
+          <t>-0,35; 2,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; -0,24</t>
+          <t>-0,03; 3,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; -1,69</t>
+          <t>-1,39; 0,95</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>125,04%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-39,43%</t>
+          <t>174,76%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-64,65%</t>
+          <t>-4,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-19,09%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-62,28%</t>
+          <t>-49,43%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>81,84%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-30,6%</t>
+          <t>141,77%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-63,56%</t>
+          <t>-21,9%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,68; 42,21</t>
+          <t>-57,06; 836,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-61,94; -2,67</t>
+          <t>-34,81; 1088,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-80,53; -37,07</t>
+          <t>-86,53; 544,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 65,78</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,44; 30,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-79,99; -29,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 35,77</t>
+          <t>-31,45; 416,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-49,87; -5,46</t>
+          <t>-12,27; 615,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-76,41; -46,24</t>
+          <t>-78,3; 213,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,81</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,97</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,32</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 1,44</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; -0,21</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; -1,5</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 1,92</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 0,87</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,61; -0,99</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 1,36</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; -0,12</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; -1,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-3,43%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-39,43%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-64,65%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-19,09%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-62,28%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-30,6%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-63,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-38,09; 39,37</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-64,32; -3,53</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-79,98; -36,45</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-25,64; 67,99</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-48,62; 29,85</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-80,31; -30,0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-23,62; 40,1</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-49,93; -3,25</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-77,03; -44,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP21-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP21-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 0,04</t>
+          <t>-12,37; 0,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,86; -3,23</t>
+          <t>-14,8; -2,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,94; -2,35</t>
+          <t>-15,62; -2,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,78; -0,69</t>
+          <t>-13,25; 0,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,51; -5,49</t>
+          <t>-17,79; -4,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,92; -8,26</t>
+          <t>-21,08; -7,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -1,7</t>
+          <t>-10,95; -1,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -5,84</t>
+          <t>-14,64; -5,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,0; -7,44</t>
+          <t>-15,9; -6,81</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,15; 3,65</t>
+          <t>-71,75; 6,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-86,3; -26,66</t>
+          <t>-83,83; -24,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-89,96; -17,58</t>
+          <t>-89,43; -17,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,66; -3,57</t>
+          <t>-66,45; 6,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-85,84; -39,78</t>
+          <t>-85,09; -37,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-96,62; -57,33</t>
+          <t>-97,17; -56,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,62; -12,28</t>
+          <t>-61,72; -13,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-80,67; -46,58</t>
+          <t>-81,42; -43,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-90,94; -55,44</t>
+          <t>-89,99; -54,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,32</t>
+          <t>-1,6; 4,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; -0,48</t>
+          <t>-4,55; -0,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 0,04</t>
+          <t>-4,33; 0,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,94</t>
+          <t>0,7; 5,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 4,15</t>
+          <t>-0,16; 4,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 4,14</t>
+          <t>-0,73; 4,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 4,24</t>
+          <t>0,37; 4,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,1</t>
+          <t>-1,89; 1,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,48</t>
+          <t>-1,91; 1,44</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 177,47</t>
+          <t>-33,6; 193,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-91,57; -6,5</t>
+          <t>-89,84; 6,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-85,97; 25,97</t>
+          <t>-84,97; 31,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,23; 811,42</t>
+          <t>2,6; 630,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,44; 524,58</t>
+          <t>-32,61; 522,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,7; 542,92</t>
+          <t>-52,95; 577,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 220,31</t>
+          <t>6,2; 220,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,58; 69,19</t>
+          <t>-55,8; 80,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-59,12; 77,86</t>
+          <t>-57,33; 83,53</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 2,49</t>
+          <t>-4,15; 2,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 2,47</t>
+          <t>-3,91; 2,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 0,2</t>
+          <t>-5,14; 0,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 1,07</t>
+          <t>-3,43; 1,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 3,01</t>
+          <t>-2,16; 2,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 1,51</t>
+          <t>-3,12; 1,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,29</t>
+          <t>-2,79; 1,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 1,92</t>
+          <t>-2,17; 2,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,21</t>
+          <t>-3,41; 0,38</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,0; 211,36</t>
+          <t>-80,88; 181,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-79,11; 158,01</t>
+          <t>-78,88; 186,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 61,91</t>
+          <t>-93,4; 51,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-78,27; 721,41</t>
+          <t>-79,54; 1292,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-78,58; 108,14</t>
+          <t>-79,97; 92,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,53; 136,79</t>
+          <t>-60,39; 146,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-85,3; 36,84</t>
+          <t>-86,28; 36,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 4,48</t>
+          <t>-0,64; 4,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 5,6</t>
+          <t>-0,1; 5,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 1,87</t>
+          <t>-2,03; 1,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,12</t>
+          <t>-1,28; 2,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 3,26</t>
+          <t>-0,81; 3,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 0,67</t>
+          <t>-2,22; 0,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,52</t>
+          <t>-0,45; 2,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 3,7</t>
+          <t>-0,1; 3,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,95</t>
+          <t>-1,41; 1,0</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-57,06; 836,66</t>
+          <t>-47,53; 782,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,81; 1088,64</t>
+          <t>-30,07; 1206,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-86,53; 544,62</t>
+          <t>-97,83; 403,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>-82,74; 993,28</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 416,13</t>
+          <t>-40,34; 478,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 615,2</t>
+          <t>-16,93; 610,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-78,3; 213,24</t>
+          <t>-80,86; 199,82</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,44</t>
+          <t>-1,84; 1,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -0,21</t>
+          <t>-3,37; -0,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,43; -1,5</t>
+          <t>-4,59; -1,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,92</t>
+          <t>-1,29; 2,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,87</t>
+          <t>-2,22; 0,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,61; -0,99</t>
+          <t>-3,68; -1,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,36</t>
+          <t>-1,15; 1,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,4; -0,12</t>
+          <t>-2,37; -0,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,66; -1,6</t>
+          <t>-3,78; -1,65</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 39,37</t>
+          <t>-34,64; 44,41</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-64,32; -3,53</t>
+          <t>-61,7; -5,55</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,98; -36,45</t>
+          <t>-81,55; -38,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 67,99</t>
+          <t>-29,59; 67,38</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-48,62; 29,85</t>
+          <t>-49,45; 29,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-80,31; -30,0</t>
+          <t>-78,26; -30,07</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 40,1</t>
+          <t>-24,49; 35,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-49,93; -3,25</t>
+          <t>-49,38; -4,02</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-77,03; -44,2</t>
+          <t>-77,01; -46,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP21-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP21-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-6,83</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-11,44</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-14,24</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-6,14</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-8,81</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-9,02</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-6,83</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-11,44</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-14,34</t>
+          <t>-9,09</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-11,56</t>
+          <t>-11,53</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 0,17</t>
+          <t>-13,9; -0,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,8; -2,75</t>
+          <t>-18,08; -4,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,62; -2,76</t>
+          <t>-20,55; -8,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 0,68</t>
+          <t>-12,69; -0,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,79; -4,86</t>
+          <t>-15,05; -3,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,08; -7,77</t>
+          <t>-15,47; -3,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -1,67</t>
+          <t>-10,92; -1,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,64; -5,81</t>
+          <t>-14,52; -5,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,9; -6,81</t>
+          <t>-15,78; -6,92</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-41,06%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-68,76%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-85,65%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-45,49%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-65,34%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-66,91%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-41,06%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-68,76%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-86,2%</t>
+          <t>-67,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-77,31%</t>
+          <t>-77,08%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,75; 6,27</t>
+          <t>-65,01; 0,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-83,83; -24,04</t>
+          <t>-85,56; -35,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-89,43; -17,66</t>
+          <t>-96,87; -57,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-66,45; 6,12</t>
+          <t>-73,61; -1,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-85,09; -37,9</t>
+          <t>-86,1; -26,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-97,17; -56,45</t>
+          <t>-89,56; -20,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,72; -13,47</t>
+          <t>-61,81; -15,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-81,42; -43,81</t>
+          <t>-80,76; -45,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-89,99; -54,93</t>
+          <t>-89,39; -49,59</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,31</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-2,41</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 4,38</t>
+          <t>0,8; 5,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,55; -0,27</t>
+          <t>-0,19; 4,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 0,29</t>
+          <t>-0,9; 4,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,73</t>
+          <t>-1,91; 4,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 4,23</t>
+          <t>-4,91; -0,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 4,37</t>
+          <t>-4,21; 0,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,23</t>
+          <t>0,44; 4,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,4</t>
+          <t>-2,03; 1,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,44</t>
+          <t>-1,98; 1,4</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>200,57%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>116,44%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>84,47%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>35,48%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-65,59%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-52,52%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>200,57%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>116,44%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>-52,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-12,2%</t>
+          <t>-13,32%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 193,75</t>
+          <t>14,86; 837,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-89,84; 6,15</t>
+          <t>-17,23; 721,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-84,97; 31,87</t>
+          <t>-54,44; 506,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 630,97</t>
+          <t>-39,11; 171,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 522,33</t>
+          <t>-91,72; -5,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,95; 577,59</t>
+          <t>-85,11; 28,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 220,44</t>
+          <t>8,87; 247,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,8; 80,53</t>
+          <t>-58,63; 70,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-57,33; 83,53</t>
+          <t>-60,76; 77,95</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-0,87</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-0,53</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,14</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-1,22</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 2,6</t>
+          <t>-3,24; 1,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 2,47</t>
+          <t>-1,81; 3,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 0,22</t>
+          <t>-3,06; 1,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 1,01</t>
+          <t>-4,13; 2,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 2,95</t>
+          <t>-3,85; 2,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,5</t>
+          <t>-5,55; 0,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,26</t>
+          <t>-2,92; 0,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 2,02</t>
+          <t>-1,89; 1,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 0,38</t>
+          <t>-3,1; 0,49</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-44,3%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>40,2%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-22,56%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-26,3%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-15,88%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-64,19%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-44,3%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>40,2%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-26,33%</t>
+          <t>-60,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-53,04%</t>
+          <t>-49,39%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,88; 181,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-78,88; 186,08</t>
+          <t>-71,71; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-93,4; 51,24</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,87; 163,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,54; 1292,79</t>
+          <t>-76,58; 167,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 83,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-79,97; 92,47</t>
+          <t>-81,0; 98,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,39; 146,02</t>
+          <t>-55,66; 143,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-86,28; 36,79</t>
+          <t>-85,8; 73,29</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>1,66</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>2,32</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,29</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 4,24</t>
+          <t>-1,29; 2,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,42</t>
+          <t>-0,91; 3,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 1,66</t>
+          <t>-2,34; 0,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,09</t>
+          <t>-0,65; 4,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 3,16</t>
+          <t>-0,05; 5,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,62</t>
+          <t>-1,77; 1,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,57</t>
+          <t>-0,44; 2,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,53</t>
+          <t>0,1; 3,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,0</t>
+          <t>-1,34; 0,92</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>20,94%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>98,98%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-53,01%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>125,04%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>174,76%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-4,19%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>20,94%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>98,98%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-49,43%</t>
+          <t>-6,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-21,9%</t>
+          <t>-25,0%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 782,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,07; 1206,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-97,83; 403,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,25; 919,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-82,74; 993,28</t>
+          <t>-23,37; 1232,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,08; 529,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 478,47</t>
+          <t>-34,03; 427,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 610,16</t>
+          <t>-4,64; 557,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-80,86; 199,82</t>
+          <t>-79,27; 212,94</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-0,16</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-1,81</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-2,97</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 1,68</t>
+          <t>-1,41; 1,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,37; -0,25</t>
+          <t>-2,23; 0,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,59; -1,6</t>
+          <t>-3,68; -0,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,0</t>
+          <t>-1,92; 1,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,79</t>
+          <t>-3,52; -0,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,68; -1,0</t>
+          <t>-4,49; -1,33</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 1,28</t>
+          <t>-1,34; 1,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,37; -0,17</t>
+          <t>-2,42; -0,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,78; -1,65</t>
+          <t>-3,7; -1,7</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>8,14%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-19,09%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-62,86%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-3,43%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-39,43%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-64,65%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>8,14%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-19,09%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-62,28%</t>
+          <t>-64,35%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-63,56%</t>
+          <t>-63,59%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-34,64; 44,41</t>
+          <t>-31,31; 65,78</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-61,7; -5,55</t>
+          <t>-48,44; 30,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-81,55; -38,88</t>
+          <t>-80,35; -29,27</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 67,38</t>
+          <t>-34,68; 42,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-49,45; 29,07</t>
+          <t>-61,94; -2,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-78,26; -30,07</t>
+          <t>-80,75; -36,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 35,85</t>
+          <t>-28,09; 35,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-49,38; -4,02</t>
+          <t>-49,87; -5,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-77,01; -46,03</t>
+          <t>-76,48; -46,52</t>
         </is>
       </c>
     </row>
